--- a/Pensum.xlsx
+++ b/Pensum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AYD1_Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB45C3FD-6A68-4A57-89E4-3727C7EDB2BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F9D7B5B-0025-4381-BB57-F70B2C824D03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{31F450FA-C9E2-41D0-901F-6E3B925EECA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
   <si>
     <t>CODIGO</t>
   </si>
@@ -216,7 +216,52 @@
     <t>Redes de Computadoras 2</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Sistemas de Bases de Datos 2</t>
+  </si>
+  <si>
+    <t>Analisis y Diseño de Sitemas 1</t>
+  </si>
+  <si>
+    <t>Seminario de Sistemas 1</t>
+  </si>
+  <si>
+    <t>Preparacion y Evaluacion de Proyectos 1</t>
+  </si>
+  <si>
+    <t>Etica Profesional</t>
+  </si>
+  <si>
+    <t>Modelacion Y Simulacion 1</t>
+  </si>
+  <si>
+    <t>Sistemas Organizacionales y Gerenciales 1</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial 1</t>
+  </si>
+  <si>
+    <t>Seguridad y Auditoria de Redes</t>
+  </si>
+  <si>
+    <t>Analisis y Diseño de Sitemas 2</t>
+  </si>
+  <si>
+    <t>Sistemas Aplicados 1</t>
+  </si>
+  <si>
+    <t>Bases de Datos Avanzadas</t>
+  </si>
+  <si>
+    <t>Seminario de Sistemas 2</t>
+  </si>
+  <si>
+    <t>Introduccion a la Evaluacion de Impacto Ambiental</t>
+  </si>
+  <si>
+    <t>Ingenieria Economica 2</t>
+  </si>
+  <si>
+    <t>Practica Final</t>
   </si>
 </sst>
 </file>
@@ -569,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6DCC78-4ABA-42AE-A108-17780C1069CA}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1529,9 @@
       <c r="I30" t="s">
         <v>14</v>
       </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1513,10 +1561,533 @@
       <c r="I31" t="s">
         <v>14</v>
       </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>775</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1">
+        <v>281774</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>283</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>774</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>797</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="1">
+        <v>724</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>170</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>700</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="1">
+        <v>732</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>706</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="1">
+        <v>700</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>190</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>200</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>729</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1">
+        <v>724603</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>786</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="1">
+        <v>283722</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>972</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1">
+        <v>781775724</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>966</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1">
+        <v>975</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>785</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="1">
+        <v>283</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>788</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1">
+        <v>283</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>738</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="1">
+        <v>775</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>798</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="1">
+        <v>797</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>190</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>288</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>190</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>702</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="1">
+        <v>700</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>200</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2009</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2036</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>200</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
